--- a/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
+++ b/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
@@ -451,491 +451,661 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9996</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6531</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4463</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>006160</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>博道启航混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>91.31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.27</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>006161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>博道启航混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>91.31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1.27</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007126</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博道远航混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007127</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博道远航混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>162006</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城久富核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000925</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富外延增长主题股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>89.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000976</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长城新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000977</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长城环保主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.55</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007831</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007832</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003493</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003512</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002542</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>长城久鼎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011424</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富外延增长主题股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>89.84</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010049</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010050</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003889</t>
+          <t>010049</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安丰泽灵活配置混合A</t>
+          <t>长城成长先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>26.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1235</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003890</t>
+          <t>000925</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安丰泽灵活配置混合C</t>
+          <t>汇添富外延增长主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>24.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0553</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007423</t>
+          <t>000977</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合A</t>
+          <t>长城环保主题灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>69.92</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0064</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007424</t>
+          <t>162006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合C</t>
+          <t>长城久富核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>69.92</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>162006</t>
+          <t>002542</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城久富核心成长混合(LOF)</t>
+          <t>长城久鼎灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.76</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5037</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000066</t>
+          <t>519983</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安鸿鑫混合</t>
+          <t>长信量化先锋混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010049</t>
+          <t>010050</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城成长先锋混合A</t>
+          <t>长城成长先锋混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>85.79</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>8.01</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010050</t>
+          <t>003493</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长城成长先锋混合C</t>
+          <t>申万菱信安鑫优选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010058</t>
+          <t>003889</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘荣创一年持有期混合</t>
+          <t>汇安丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25.46</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000925</t>
+          <t>000976</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富外延增长主题股票A</t>
+          <t>长城新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>83.18</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011424</t>
+          <t>010703</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富外延增长主题股票C</t>
+          <t>财通智选消费股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>83.18</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000976</t>
+          <t>200015</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长城新兴产业灵活配置混合</t>
+          <t>长城优化升级混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000977</t>
+          <t>007903</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长城环保主题灵活配置混合</t>
+          <t>长城量化小盘股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>86.05</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.85</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010703</t>
+          <t>000066</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>财通智选消费股票A</t>
+          <t>诺安鸿鑫混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010704</t>
+          <t>200016</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>财通智选消费股票C</t>
+          <t>长城稳健成长灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>62.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>519983</t>
+          <t>010058</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>长信量化先锋混合A</t>
+          <t>天弘荣创一年持有期混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>25.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004221</t>
+          <t>010704</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>长信量化先锋混合C</t>
+          <t>财通智选消费股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002542</t>
+          <t>003512</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>长城久鼎灵活配置混合</t>
+          <t>申万菱信安鑫优选混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.20</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>200015</t>
+          <t>003890</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>长城优化升级混合</t>
+          <t>汇安丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>83.17</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>200016</t>
+          <t>011424</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>长城稳健成长灵活配置混合</t>
+          <t>汇添富外延增长主题股票C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>62.27</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007903</t>
+          <t>007423</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>长城量化小盘股票</t>
+          <t>西部利得聚禾灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>83.79</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003493</t>
+          <t>007424</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>申万菱信安鑫优选混合A</t>
+          <t>西部利得聚禾灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>003512</t>
+          <t>004221</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>申万菱信安鑫优选混合C</t>
+          <t>长信量化先锋混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>26.53</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
+++ b/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7868</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0343</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7064</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5173</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
+++ b/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2512,4 +2513,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8881</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4741</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
+++ b/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2873,4 +2874,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
+++ b/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2882,7 +2883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,17 +2894,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2913,14 +2934,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.92</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -2929,14 +3024,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>4.61</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="4">
@@ -2945,14 +3040,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>6.3</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="5">
@@ -2961,13 +3056,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
+++ b/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2977,7 +2978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2988,17 +2989,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3008,14 +3029,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3024,14 +3067,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.92</v>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3040,14 +3105,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>4.61</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="5">
@@ -3056,14 +3227,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>6.3</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="6">
@@ -3072,13 +3243,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
+++ b/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3148,7 +3149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3159,17 +3160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9773</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.01</v>
       </c>
     </row>
     <row r="3">
@@ -3195,14 +3238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3211,14 +3276,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.92</v>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3227,14 +3314,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.61</v>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3243,14 +3352,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.3</v>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3259,13 +3390,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
+++ b/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2.92</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>4.61</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>6.3</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.24</v>
       </c>
     </row>
@@ -600,6 +617,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1601</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1091,7 +1352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1185,7 +1446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1545,7 +1806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2019,7 +2280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2949,7 +3210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
+++ b/数据整理/stocks/A股/上证主板/603208-江山欧派.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>1.32</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2.92</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>4.61</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>6.3</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,694 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9996</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6531</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4463</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1298,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2949</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014788</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012466</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2867</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015383</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015303</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012467</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>41.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015162</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城鑫景产业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015128</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014789</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>48.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015304</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>41.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015163</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城鑫景产业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -860,7 +2395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1182,7 +2717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1352,7 +2887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1446,7 +2981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1806,7 +3341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2280,7 +3815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3208,668 +4743,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010049</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9996</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000925</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富外延增长主题股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.6531</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000977</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城环保主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0518</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002542</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长城久鼎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5262</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>162006</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长城久富核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4463</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003493</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1153</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010050</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0836</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007831</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0762</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006160</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博道启航混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0663</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000976</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长城新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0654</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007126</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博道远航混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0540</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007127</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博道远航混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007832</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0254</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003512</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011424</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富外延增长主题股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.84</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006161</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博道启航混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>